--- a/Projeto-Documentacao/Planilhas/Riscos.xlsx
+++ b/Projeto-Documentacao/Planilhas/Riscos.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="44" documentId="7_{36E4FCBA-339B-CF4F-8512-262A777F02E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{996428D9-E721-8843-8031-203B7ECC022D}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF04E70-91EB-4688-A641-5F02A03E7196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,9 +75,6 @@
     <t>Mitigar</t>
   </si>
   <si>
-    <t>Fazendo uma distribuição das tarefas de com que todos participem</t>
-  </si>
-  <si>
     <t>Problemas com os arquivos do projeto</t>
   </si>
   <si>
@@ -88,7 +90,10 @@
     <t>Desistência de membros do grupo</t>
   </si>
   <si>
-    <t>Transferindo as atividades do desistente para outros membros</t>
+    <t>Realizando uma distribuição das tarefas fazendo com que todos participem</t>
+  </si>
+  <si>
+    <t>Ensinar todos sobre atividade que todos estão realizando e Transferindo as atividades do desistente para outros membros</t>
   </si>
 </sst>
 </file>
@@ -144,7 +149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -442,19 +447,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68554F7F-BE4A-C040-A4FC-B1DF6DA38FD6}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{07ADE6A5-A824-536D-ACBF-7E2CA362ED74}">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.0859375" customWidth="1"/>
-    <col min="2" max="2" width="17.484375" customWidth="1"/>
-    <col min="4" max="4" width="11.703125" customWidth="1"/>
-    <col min="6" max="6" width="55.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -494,7 +499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -511,15 +516,15 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -528,15 +533,15 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -548,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>

--- a/Projeto-Documentacao/Planilhas/Riscos.xlsx
+++ b/Projeto-Documentacao/Planilhas/Riscos.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF04E70-91EB-4688-A641-5F02A03E7196}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -93,14 +92,14 @@
     <t>Realizando uma distribuição das tarefas fazendo com que todos participem</t>
   </si>
   <si>
-    <t>Ensinar todos sobre atividade que todos estão realizando e Transferindo as atividades do desistente para outros membros</t>
+    <t>Ensinar todos sobre atividade que todos estão realizando e transferindo as atividades do desistente para outros membros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +107,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,12 +144,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,122 +481,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68554F7F-BE4A-C040-A4FC-B1DF6DA38FD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="98.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Projeto-Documentacao/Planilhas/Riscos.xlsx
+++ b/Projeto-Documentacao/Planilhas/Riscos.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\grupo3-sa\Projeto-Documentacao\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01C840-C5E7-4808-868C-32D165765556}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView minimized="1" xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -98,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +106,8 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,7 +116,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,11 +172,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,50 +525,50 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="98.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -547,37 +578,37 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -587,13 +618,13 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
